--- a/modelos/OBABOL4471038/OBABOL4471038_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471038/OBABOL4471038_Sell Out_metricas.xlsx
@@ -476,13 +476,13 @@
         <v>45014</v>
       </c>
       <c r="B2" t="n">
-        <v>57.72672572264585</v>
+        <v>57.50314385155376</v>
       </c>
       <c r="C2" t="n">
-        <v>36.77182292681562</v>
+        <v>36.18283161361779</v>
       </c>
       <c r="D2" t="n">
-        <v>77.25657108138502</v>
+        <v>76.96744318886198</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
@@ -496,13 +496,13 @@
         <v>45022</v>
       </c>
       <c r="B3" t="n">
-        <v>42.11386947435783</v>
+        <v>41.80348088080594</v>
       </c>
       <c r="C3" t="n">
-        <v>19.15677130210024</v>
+        <v>18.99502383749178</v>
       </c>
       <c r="D3" t="n">
-        <v>64.11642458347038</v>
+        <v>63.12358598558213</v>
       </c>
       <c r="E3" t="n">
         <v>76</v>
@@ -516,13 +516,13 @@
         <v>45027</v>
       </c>
       <c r="B4" t="n">
-        <v>56.82698377007744</v>
+        <v>57.48378060150603</v>
       </c>
       <c r="C4" t="n">
-        <v>34.84803084158244</v>
+        <v>34.89029448919669</v>
       </c>
       <c r="D4" t="n">
-        <v>78.24529172514133</v>
+        <v>77.66304991976243</v>
       </c>
       <c r="E4" t="n">
         <v>64</v>
@@ -536,13 +536,13 @@
         <v>45033</v>
       </c>
       <c r="B5" t="n">
-        <v>63.82209936066469</v>
+        <v>63.72985127253266</v>
       </c>
       <c r="C5" t="n">
-        <v>43.04435257637035</v>
+        <v>42.29613017419186</v>
       </c>
       <c r="D5" t="n">
-        <v>84.28612839688357</v>
+        <v>86.81067749278878</v>
       </c>
       <c r="E5" t="n">
         <v>53</v>
@@ -556,13 +556,13 @@
         <v>45040</v>
       </c>
       <c r="B6" t="n">
-        <v>60.50470367819329</v>
+        <v>60.21782418076552</v>
       </c>
       <c r="C6" t="n">
-        <v>39.73704602425176</v>
+        <v>37.56631797461597</v>
       </c>
       <c r="D6" t="n">
-        <v>81.65173570166311</v>
+        <v>81.4083536283424</v>
       </c>
       <c r="E6" t="n">
         <v>31</v>
@@ -576,13 +576,13 @@
         <v>45048</v>
       </c>
       <c r="B7" t="n">
-        <v>54.8792258556361</v>
+        <v>55.45009502751068</v>
       </c>
       <c r="C7" t="n">
-        <v>32.91945722190288</v>
+        <v>34.06750450188805</v>
       </c>
       <c r="D7" t="n">
-        <v>75.04663911366922</v>
+        <v>78.47650232771799</v>
       </c>
       <c r="E7" t="n">
         <v>50</v>
@@ -596,13 +596,13 @@
         <v>45055</v>
       </c>
       <c r="B8" t="n">
-        <v>53.04124868765176</v>
+        <v>53.34123671897162</v>
       </c>
       <c r="C8" t="n">
-        <v>31.7494209608218</v>
+        <v>32.3277544584398</v>
       </c>
       <c r="D8" t="n">
-        <v>75.23680545895854</v>
+        <v>74.66953658308779</v>
       </c>
       <c r="E8" t="n">
         <v>50</v>
@@ -616,13 +616,13 @@
         <v>45062</v>
       </c>
       <c r="B9" t="n">
-        <v>51.66016126824405</v>
+        <v>51.94014171850189</v>
       </c>
       <c r="C9" t="n">
-        <v>31.0301081501792</v>
+        <v>30.75002162285359</v>
       </c>
       <c r="D9" t="n">
-        <v>73.47020506768123</v>
+        <v>73.32734145760983</v>
       </c>
       <c r="E9" t="n">
         <v>11</v>
@@ -697,22 +697,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>661.8644164082474</v>
+        <v>650.4103463130443</v>
       </c>
       <c r="C2" t="n">
-        <v>25.72672572264585</v>
+        <v>25.50314385155376</v>
       </c>
       <c r="D2" t="n">
-        <v>25.72672572264585</v>
+        <v>25.50314385155376</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8039601788326827</v>
+        <v>0.796973245361055</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8039601788326827</v>
+        <v>0.796973245361055</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5734462171765787</v>
+        <v>0.5698826377283959</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -723,22 +723,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1148.269842000858</v>
+        <v>1169.401919869405</v>
       </c>
       <c r="C3" t="n">
-        <v>33.88613052564217</v>
+        <v>34.19651911919406</v>
       </c>
       <c r="D3" t="n">
-        <v>33.88613052564217</v>
+        <v>34.19651911919406</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4458701384952917</v>
+        <v>0.449954198936764</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4458701384952917</v>
+        <v>0.449954198936764</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5737874929751371</v>
+        <v>0.5805689078711392</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -749,22 +749,22 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>493.822686855046</v>
+        <v>484.4054790943985</v>
       </c>
       <c r="C4" t="n">
-        <v>22.22212156512168</v>
+        <v>22.00921350467569</v>
       </c>
       <c r="D4" t="n">
-        <v>20.16340151942899</v>
+        <v>19.97383772664909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5779775943776171</v>
+        <v>0.5724802407270496</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5779775943776171</v>
+        <v>0.5724802407270496</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4150766351336109</v>
+        <v>0.4122286492550428</v>
       </c>
       <c r="H4" t="n">
         <v>0.5</v>
@@ -775,22 +775,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>434.4392286811994</v>
+        <v>439.8559294503573</v>
       </c>
       <c r="C5" t="n">
-        <v>20.8432058158336</v>
+        <v>20.97274253526127</v>
       </c>
       <c r="D5" t="n">
-        <v>13.93841301036362</v>
+        <v>14.06192321586954</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9917165416428482</v>
+        <v>0.9998684070873671</v>
       </c>
       <c r="F5" t="n">
-        <v>0.104831447852631</v>
+        <v>0.1054089143258409</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3921514652993952</v>
+        <v>0.3940581659287556</v>
       </c>
       <c r="H5" t="n">
         <v>0.75</v>

--- a/modelos/OBABOL4471038/OBABOL4471038_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471038/OBABOL4471038_Sell Out_metricas.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,13 +476,13 @@
         <v>45014</v>
       </c>
       <c r="B2" t="n">
-        <v>57.50314385155376</v>
+        <v>57.50314385139689</v>
       </c>
       <c r="C2" t="n">
-        <v>36.18283161361779</v>
+        <v>35.63102748827742</v>
       </c>
       <c r="D2" t="n">
-        <v>76.96744318886198</v>
+        <v>79.1532676971559</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
@@ -493,39 +493,39 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45022</v>
+        <v>45017</v>
       </c>
       <c r="B3" t="n">
-        <v>41.80348088080594</v>
+        <v>73.54677072862107</v>
       </c>
       <c r="C3" t="n">
-        <v>18.99502383749178</v>
+        <v>52.7716219247409</v>
       </c>
       <c r="D3" t="n">
-        <v>63.12358598558213</v>
+        <v>93.96206704272934</v>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45020</v>
+        <v>45013</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45027</v>
+        <v>45022</v>
       </c>
       <c r="B4" t="n">
-        <v>57.48378060150603</v>
+        <v>34.10982254127507</v>
       </c>
       <c r="C4" t="n">
-        <v>34.89029448919669</v>
+        <v>11.13835775687987</v>
       </c>
       <c r="D4" t="n">
-        <v>77.66304991976243</v>
+        <v>57.24916733386713</v>
       </c>
       <c r="E4" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>45020</v>
@@ -533,101 +533,121 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45033</v>
+        <v>45027</v>
       </c>
       <c r="B5" t="n">
-        <v>63.72985127253266</v>
+        <v>53.58050631515734</v>
       </c>
       <c r="C5" t="n">
-        <v>42.29613017419186</v>
+        <v>30.16071214634956</v>
       </c>
       <c r="D5" t="n">
-        <v>86.81067749278878</v>
+        <v>75.66401993485542</v>
       </c>
       <c r="E5" t="n">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45027</v>
+        <v>45020</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45040</v>
+        <v>45033</v>
       </c>
       <c r="B6" t="n">
-        <v>60.21782418076552</v>
+        <v>57.3720778530739</v>
       </c>
       <c r="C6" t="n">
-        <v>37.56631797461597</v>
+        <v>33.73037143718097</v>
       </c>
       <c r="D6" t="n">
-        <v>81.4083536283424</v>
+        <v>82.24755459587763</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45034</v>
+        <v>45027</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45048</v>
+        <v>45040</v>
       </c>
       <c r="B7" t="n">
-        <v>55.45009502751068</v>
+        <v>55.06872768580861</v>
       </c>
       <c r="C7" t="n">
-        <v>34.06750450188805</v>
+        <v>31.09984401651744</v>
       </c>
       <c r="D7" t="n">
-        <v>78.47650232771799</v>
+        <v>76.85804015801203</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45041</v>
+        <v>45034</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45055</v>
+        <v>45048</v>
       </c>
       <c r="B8" t="n">
-        <v>53.34123671897162</v>
+        <v>52.19085699725876</v>
       </c>
       <c r="C8" t="n">
-        <v>32.3277544584398</v>
+        <v>30.37993540381312</v>
       </c>
       <c r="D8" t="n">
-        <v>74.66953658308779</v>
+        <v>76.89295391199104</v>
       </c>
       <c r="E8" t="n">
         <v>50</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45048</v>
+        <v>45041</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
+        <v>45055</v>
+      </c>
+      <c r="B9" t="n">
+        <v>50.56352963573875</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.96626101669911</v>
+      </c>
+      <c r="D9" t="n">
+        <v>74.65335711790104</v>
+      </c>
+      <c r="E9" t="n">
+        <v>50</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>45062</v>
       </c>
-      <c r="B9" t="n">
-        <v>51.94014171850189</v>
-      </c>
-      <c r="C9" t="n">
-        <v>30.75002162285359</v>
-      </c>
-      <c r="D9" t="n">
-        <v>73.32734145760983</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="B10" t="n">
+        <v>49.18769544882755</v>
+      </c>
+      <c r="C10" t="n">
+        <v>25.67533220268786</v>
+      </c>
+      <c r="D10" t="n">
+        <v>73.84100499811535</v>
+      </c>
+      <c r="E10" t="n">
         <v>11</v>
       </c>
-      <c r="F9" s="2" t="n">
+      <c r="F10" s="2" t="n">
         <v>45055</v>
       </c>
     </row>
@@ -642,7 +662,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -697,22 +717,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>650.4103463130443</v>
+        <v>650.4103463050427</v>
       </c>
       <c r="C2" t="n">
-        <v>25.50314385155376</v>
+        <v>25.50314385139689</v>
       </c>
       <c r="D2" t="n">
-        <v>25.50314385155376</v>
+        <v>25.50314385139689</v>
       </c>
       <c r="E2" t="n">
-        <v>0.796973245361055</v>
+        <v>0.7969732453561527</v>
       </c>
       <c r="F2" t="n">
-        <v>0.796973245361055</v>
+        <v>0.7969732453561527</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5698826377283959</v>
+        <v>0.5698826377258893</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -723,22 +743,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1169.401919869405</v>
+        <v>1754.786967523466</v>
       </c>
       <c r="C3" t="n">
-        <v>34.19651911919406</v>
+        <v>41.89017745872493</v>
       </c>
       <c r="D3" t="n">
-        <v>34.19651911919406</v>
+        <v>41.89017745872493</v>
       </c>
       <c r="E3" t="n">
-        <v>0.449954198936764</v>
+        <v>0.5511865455095385</v>
       </c>
       <c r="F3" t="n">
-        <v>0.449954198936764</v>
+        <v>0.5511865455095385</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5805689078711392</v>
+        <v>0.7608799377189486</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -746,53 +766,79 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>484.4054790943985</v>
+        <v>2867.25665546351</v>
       </c>
       <c r="C4" t="n">
-        <v>22.00921350467569</v>
+        <v>53.54677072862107</v>
       </c>
       <c r="D4" t="n">
-        <v>19.97383772664909</v>
+        <v>53.54677072862107</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5724802407270496</v>
+        <v>2.677338536431054</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5724802407270496</v>
+        <v>2.677338536431054</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4122286492550428</v>
+        <v>1.144812809924997</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>299.2093585834746</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17.29766916620487</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.22040276944125</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4294513027368068</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.4294513027368068</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.3192576184640448</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
-        <v>439.8559294503573</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20.97274253526127</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.06192321586954</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.9998684070873671</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.1054089143258409</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.3940581659287556</v>
-      </c>
-      <c r="H5" t="n">
+      <c r="B6" t="n">
+        <v>392.9958380934183</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19.82412263111329</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.84039394166693</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.9223752496629394</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1033108643854209</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3750676013325211</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.75</v>
       </c>
     </row>

--- a/modelos/OBABOL4471038/OBABOL4471038_Sell Out_metricas.xlsx
+++ b/modelos/OBABOL4471038/OBABOL4471038_Sell Out_metricas.xlsx
@@ -479,10 +479,10 @@
         <v>57.50314385139689</v>
       </c>
       <c r="C2" t="n">
-        <v>35.63102748827742</v>
+        <v>37.30748521781376</v>
       </c>
       <c r="D2" t="n">
-        <v>79.1532676971559</v>
+        <v>80.36680127993121</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
@@ -499,10 +499,10 @@
         <v>73.54677072862107</v>
       </c>
       <c r="C3" t="n">
-        <v>52.7716219247409</v>
+        <v>51.42381544037684</v>
       </c>
       <c r="D3" t="n">
-        <v>93.96206704272934</v>
+        <v>93.49700785371698</v>
       </c>
       <c r="E3" t="n">
         <v>20</v>
@@ -519,10 +519,10 @@
         <v>34.10982254127507</v>
       </c>
       <c r="C4" t="n">
-        <v>11.13835775687987</v>
+        <v>11.95156274133608</v>
       </c>
       <c r="D4" t="n">
-        <v>57.24916733386713</v>
+        <v>58.43261634449798</v>
       </c>
       <c r="E4" t="n">
         <v>76</v>
@@ -539,10 +539,10 @@
         <v>53.58050631515734</v>
       </c>
       <c r="C5" t="n">
-        <v>30.16071214634956</v>
+        <v>31.31863972121091</v>
       </c>
       <c r="D5" t="n">
-        <v>75.66401993485542</v>
+        <v>76.12442835477177</v>
       </c>
       <c r="E5" t="n">
         <v>64</v>
@@ -559,10 +559,10 @@
         <v>57.3720778530739</v>
       </c>
       <c r="C6" t="n">
-        <v>33.73037143718097</v>
+        <v>35.18288656727044</v>
       </c>
       <c r="D6" t="n">
-        <v>82.24755459587763</v>
+        <v>82.3627222749204</v>
       </c>
       <c r="E6" t="n">
         <v>53</v>
@@ -579,10 +579,10 @@
         <v>55.06872768580861</v>
       </c>
       <c r="C7" t="n">
-        <v>31.09984401651744</v>
+        <v>31.19325271444334</v>
       </c>
       <c r="D7" t="n">
-        <v>76.85804015801203</v>
+        <v>78.50285695825791</v>
       </c>
       <c r="E7" t="n">
         <v>31</v>
@@ -599,10 +599,10 @@
         <v>52.19085699725876</v>
       </c>
       <c r="C8" t="n">
-        <v>30.37993540381312</v>
+        <v>28.30186505294396</v>
       </c>
       <c r="D8" t="n">
-        <v>76.89295391199104</v>
+        <v>75.57083633162701</v>
       </c>
       <c r="E8" t="n">
         <v>50</v>
@@ -619,10 +619,10 @@
         <v>50.56352963573875</v>
       </c>
       <c r="C9" t="n">
-        <v>27.96626101669911</v>
+        <v>27.9211466102973</v>
       </c>
       <c r="D9" t="n">
-        <v>74.65335711790104</v>
+        <v>74.38679848375112</v>
       </c>
       <c r="E9" t="n">
         <v>50</v>
@@ -639,10 +639,10 @@
         <v>49.18769544882755</v>
       </c>
       <c r="C10" t="n">
-        <v>25.67533220268786</v>
+        <v>26.61722303139349</v>
       </c>
       <c r="D10" t="n">
-        <v>73.84100499811535</v>
+        <v>71.78351401246348</v>
       </c>
       <c r="E10" t="n">
         <v>11</v>
